--- a/formats/excel/PSY/2022/Formats R3A 22.xlsx
+++ b/formats/excel/PSY/2022/Formats R3A 22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/PSY/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A3DB52-A757-7B4F-B633-1C6A669C8241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503C683-044F-C74C-9254-D9442515364E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="460" windowWidth="27340" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,14 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -624,7 +632,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -897,13 +905,13 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>97</v>
       </c>
       <c r="D14">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -920,10 +928,10 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -940,10 +948,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
@@ -960,10 +968,10 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>
@@ -980,10 +988,10 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
         <v>61</v>
@@ -997,13 +1005,13 @@
         <v>35</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D19">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -1020,10 +1028,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D20">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
@@ -1040,10 +1048,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D21" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
         <v>63</v>
@@ -1060,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D22">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
@@ -1080,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D23">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
@@ -1100,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D24">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
@@ -1120,10 +1128,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D25">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
@@ -1140,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D26">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>48</v>
@@ -1160,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D27">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
         <v>50</v>
@@ -1180,10 +1188,10 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D28">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
         <v>52</v>
@@ -1197,7 +1205,7 @@
         <v>53</v>
       </c>
       <c r="C29">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
         <v>54</v>
